--- a/results/other/table_2.xlsx
+++ b/results/other/table_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuagilman/Documents/PhD_classes/GIS_spatial_stats/assignments/saffary_project/saffary_repository/RP-Saffary-2020/results/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2D6DA6-C128-8442-850B-514BAB048FDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229CFDE-B025-764F-B067-3DF1B31EAD6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37940" yWindow="-1880" windowWidth="31240" windowHeight="18300" xr2:uid="{4C5DAEEC-0FD2-6F43-8CD8-461FA84773B6}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="31240" windowHeight="18300" xr2:uid="{4C5DAEEC-0FD2-6F43-8CD8-461FA84773B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,6 @@
     <t>46.49 (28.77-69.46)</t>
   </si>
   <si>
-    <t>110 (45.06-277.31)</t>
-  </si>
-  <si>
-    <t>2 (0-10.0)</t>
-  </si>
-  <si>
     <t>0.2286****</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>Table 2. Reproduction of mean, median (IQR), global bivariate Moran's I</t>
+  </si>
+  <si>
+    <t>32.0 (7.0-147.8)</t>
+  </si>
+  <si>
+    <t>1.00 (0-5)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +589,7 @@
   <dimension ref="B4:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +604,7 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -612,10 +615,10 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -627,10 +630,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -639,14 +642,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>268.02</v>
+        <v>503.1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -654,13 +657,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>11.48</v>
+        <v>30.5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -684,32 +687,32 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>54.15</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>51.96</v>
@@ -718,15 +721,15 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4">
         <v>54.51</v>
@@ -735,10 +738,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -829,10 +832,10 @@
         <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -863,10 +866,10 @@
         <v>25</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">

--- a/results/other/table_2.xlsx
+++ b/results/other/table_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuagilman/Documents/PhD_classes/GIS_spatial_stats/assignments/saffary_project/saffary_repository/RP-Saffary-2020/results/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229CFDE-B025-764F-B067-3DF1B31EAD6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB00FA-17E8-DC43-A94E-C22DC4A5B35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="31240" windowHeight="18300" xr2:uid="{4C5DAEEC-0FD2-6F43-8CD8-461FA84773B6}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="31240" windowHeight="18300" xr2:uid="{4C5DAEEC-0FD2-6F43-8CD8-461FA84773B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
